--- a/dev/fichier_exemple_commande/v2 prog EPTB Est_Ouest 2022 - commande_3 derniers trimestres_ajout suivis Captages_version dev libreSQE.xlsx
+++ b/dev/fichier_exemple_commande/v2 prog EPTB Est_Ouest 2022 - commande_3 derniers trimestres_ajout suivis Captages_version dev libreSQE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\LibreSQE\dev\fichier_exemple_commande\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B6A395-399F-4CA0-8CFF-A5834A8FEBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1243E345-E0D4-43F5-BB49-7F5C64985FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dictionnaire_donnees" sheetId="9" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7439" uniqueCount="1178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7439" uniqueCount="1180">
   <si>
     <t>UG</t>
   </si>
@@ -3760,6 +3760,12 @@
   </si>
   <si>
     <t>SIRET du prestataire en charge de la prestation</t>
+  </si>
+  <si>
+    <t>fevrier</t>
+  </si>
+  <si>
+    <t>decembre</t>
   </si>
 </sst>
 </file>
@@ -6932,8 +6938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873A4119-B421-47B4-B521-95475D346CBB}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6957,7 +6963,7 @@
         <v>1008</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>1009</v>
+        <v>1178</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>1010</v>
@@ -6987,7 +6993,7 @@
         <v>1006</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>1007</v>
+        <v>1179</v>
       </c>
       <c r="O1" s="14" t="s">
         <v>258</v>
@@ -8704,7 +8710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685B649A-8980-473A-B7D5-0D06816E11D1}">
   <dimension ref="A1:O713"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
